--- a/exceltestdata/TC018.xlsx
+++ b/exceltestdata/TC018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2086357-652D-4997-9693-E0295505E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C8776-61A8-469C-827C-C2D5F372FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>AccountTitle</t>
-  </si>
-  <si>
-    <t>Salesforce Automation by KSK</t>
-  </si>
-  <si>
-    <t>Salesforce Automation by  Sankarakarthikeyan</t>
-  </si>
-  <si>
-    <t>VerifyText</t>
-  </si>
-  <si>
-    <t>Perception Analysis</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Neel Sourav</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>FileVerification</t>
+  </si>
+  <si>
+    <t>F:\\Trainings\\TestLeaf\\Selenium Bootcamp\\week3\\Dummy.txt</t>
+  </si>
+  <si>
+    <t>Dummy.txt</t>
   </si>
 </sst>
 </file>
@@ -75,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,28 +378,32 @@
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
